--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.Audit.CareServices.Updates.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.Audit.CareServices.Updates.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.9.0</t>
+    <t>4.0.0-comment</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Audit Event for Request Care Services Updates Transaction by the Care Services Update Consumer and Care Services Update Supplier</t>
+    <t>Audit Event for Request Care Services Updates Transaction by the Update Client and Directory</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T17:05:26-06:00</t>
+    <t>2025-03-12T11:04:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,7 +91,7 @@
   </si>
   <si>
     <t>Defines constraints on the AuditEvent Resource to record when a Request Care Services Updates Transaction happens
-for a Care Services Resource updates, as recorded by the Care Services Update Supplier or Care Services Update Consumer.</t>
+for a Care Services Resource updates, as recorded by the Directory or Update Client.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.Audit.CareServices.Updates.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.Audit.CareServices.Updates.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-comment</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:04:43-05:00</t>
+    <t>2025-05-21T13:41:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2551,17 +2551,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.4609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.50390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.34765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2570,28 +2570,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.44921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.00390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="139.34765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.29296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="30.86328125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="35.875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
